--- a/biology/Zoologie/Ammophilinae/Ammophilinae.xlsx
+++ b/biology/Zoologie/Ammophilinae/Ammophilinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ammophilinae sont une sous-famille d'hyménoptères sphécidés qui comprend les genres suivants :
 Ammophila Kirby, 1798
@@ -489,7 +501,7 @@
 Hoplammophila de Beaumont, 1960
 Parapsammophila Taschenberg, 1869
 Podalonia Fernald, 1927.
-Dans certaines classifications (comme celle de Fauna Europaea), la sous-famille équivaut à la tribu des Ammophilini[1].
+Dans certaines classifications (comme celle de Fauna Europaea), la sous-famille équivaut à la tribu des Ammophilini.
 </t>
         </is>
       </c>
